--- a/Sufficient data/forecast_summary_B087GH5SK2.xlsx
+++ b/Sufficient data/forecast_summary_B087GH5SK2.xlsx
@@ -414,7 +414,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:J17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -430,40 +430,45 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>Week_Start_Date</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
+      <c r="D1" t="inlineStr">
         <is>
           <t>MyForecast</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
+      <c r="E1" t="inlineStr">
         <is>
           <t>Amazon Mean Forecast</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="F1" t="inlineStr">
         <is>
           <t>Amazon P70 Forecast</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Amazon P80 Forecast</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Amazon P90 Forecast</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>is_holiday_week</t>
         </is>
@@ -472,16 +477,18 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>W01</t>
+          <t>W1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>0</v>
+          <t>2025-01-05</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -493,30 +500,35 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
+        <v>0</v>
+      </c>
+      <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Z490 AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="I2" t="n">
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J2" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>W02</t>
+          <t>W2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>0</v>
+          <t>2025-01-12</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -530,28 +542,33 @@
       <c r="G3" t="n">
         <v>0</v>
       </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Z490 AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="I3" t="n">
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J3" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>W03</t>
+          <t>W3</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>0</v>
+          <t>2025-01-19</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -560,33 +577,38 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>1</v>
       </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Z490 AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="I4" t="n">
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J4" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>W04</t>
+          <t>W4</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>0</v>
+          <t>2025-01-26</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -600,28 +622,33 @@
       <c r="G5" t="n">
         <v>0</v>
       </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Z490 AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="I5" t="n">
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J5" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>W05</t>
+          <t>W5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>0</v>
+          <t>2025-02-02</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -635,28 +662,33 @@
       <c r="G6" t="n">
         <v>0</v>
       </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Z490 AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="I6" t="n">
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J6" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>W06</t>
+          <t>W6</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>0</v>
+          <t>2025-02-09</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -670,28 +702,33 @@
       <c r="G7" t="n">
         <v>0</v>
       </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Z490 AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="I7" t="n">
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J7" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>W07</t>
+          <t>W7</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
-        </is>
-      </c>
-      <c r="C8" t="n">
-        <v>0</v>
+          <t>2025-02-16</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -705,28 +742,33 @@
       <c r="G8" t="n">
         <v>0</v>
       </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Z490 AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="I8" t="n">
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J8" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>W08</t>
+          <t>W8</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
-        </is>
-      </c>
-      <c r="C9" t="n">
-        <v>0</v>
+          <t>2025-02-23</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -740,28 +782,33 @@
       <c r="G9" t="n">
         <v>0</v>
       </c>
-      <c r="H9" t="inlineStr">
-        <is>
-          <t>Z490 AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="I9" t="n">
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J9" t="b">
         <v>0</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>W09</t>
+          <t>W9</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
-        </is>
-      </c>
-      <c r="C10" t="n">
-        <v>0</v>
+          <t>2025-03-02</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -775,12 +822,15 @@
       <c r="G10" t="n">
         <v>0</v>
       </c>
-      <c r="H10" t="inlineStr">
-        <is>
-          <t>Z490 AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="I10" t="n">
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J10" t="b">
         <v>0</v>
       </c>
     </row>
@@ -792,11 +842,13 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
-        </is>
-      </c>
-      <c r="C11" t="n">
-        <v>0</v>
+          <t>2025-03-09</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -810,12 +862,15 @@
       <c r="G11" t="n">
         <v>0</v>
       </c>
-      <c r="H11" t="inlineStr">
-        <is>
-          <t>Z490 AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="I11" t="n">
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J11" t="b">
         <v>0</v>
       </c>
     </row>
@@ -827,11 +882,13 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
-        </is>
-      </c>
-      <c r="C12" t="n">
-        <v>0</v>
+          <t>2025-03-16</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -845,12 +902,15 @@
       <c r="G12" t="n">
         <v>0</v>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Z490 AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="I12" t="n">
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J12" t="b">
         <v>0</v>
       </c>
     </row>
@@ -862,11 +922,13 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
-        </is>
-      </c>
-      <c r="C13" t="n">
-        <v>0</v>
+          <t>2025-03-23</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>0</v>
@@ -880,12 +942,15 @@
       <c r="G13" t="n">
         <v>0</v>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Z490 AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="I13" t="n">
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J13" t="b">
         <v>0</v>
       </c>
     </row>
@@ -897,11 +962,13 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
-        </is>
-      </c>
-      <c r="C14" t="n">
-        <v>0</v>
+          <t>2025-03-30</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -915,12 +982,15 @@
       <c r="G14" t="n">
         <v>0</v>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Z490 AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="I14" t="n">
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J14" t="b">
         <v>0</v>
       </c>
     </row>
@@ -932,11 +1002,13 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
-        </is>
-      </c>
-      <c r="C15" t="n">
-        <v>0</v>
+          <t>2025-04-06</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -950,12 +1022,15 @@
       <c r="G15" t="n">
         <v>0</v>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Z490 AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="I15" t="n">
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J15" t="b">
         <v>0</v>
       </c>
     </row>
@@ -967,11 +1042,13 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
-        </is>
-      </c>
-      <c r="C16" t="n">
-        <v>0</v>
+          <t>2025-04-13</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -985,12 +1062,15 @@
       <c r="G16" t="n">
         <v>0</v>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Z490 AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="I16" t="n">
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J16" t="b">
         <v>0</v>
       </c>
     </row>
@@ -1002,11 +1082,13 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>B087GH5SK2</t>
-        </is>
-      </c>
-      <c r="C17" t="n">
-        <v>0</v>
+          <t>2025-04-20</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -1020,12 +1102,15 @@
       <c r="G17" t="n">
         <v>0</v>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>Z490 AORUS MASTER</t>
-        </is>
-      </c>
-      <c r="I17" t="n">
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Z490 AORUS MASTER</t>
+        </is>
+      </c>
+      <c r="J17" t="b">
         <v>0</v>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B087GH5SK2.xlsx
+++ b/Sufficient data/forecast_summary_B087GH5SK2.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2024-12-29</t>
+          <t>2023-01-01 to 2025-01-05</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-05</t>
+          <t>2025-01-12</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B087GH5SK2.xlsx
+++ b/Sufficient data/forecast_summary_B087GH5SK2.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -500,7 +500,7 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="H2" t="n">
         <v>1</v>
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2025-01-05</t>
+          <t>2023-01-01 to 2025-01-12</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-12</t>
+          <t>2025-01-19</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B087GH5SK2.xlsx
+++ b/Sufficient data/forecast_summary_B087GH5SK2.xlsx
@@ -482,7 +482,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -522,7 +522,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -562,7 +562,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2025-02-02</t>
+          <t>2025-02-09</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -602,7 +602,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-02-09</t>
+          <t>2025-02-16</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -642,7 +642,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2025-02-16</t>
+          <t>2025-02-23</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -682,7 +682,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2025-02-23</t>
+          <t>2025-03-02</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -722,7 +722,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2025-03-02</t>
+          <t>2025-03-09</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -762,7 +762,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2025-03-09</t>
+          <t>2025-03-16</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -802,7 +802,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2025-03-16</t>
+          <t>2025-03-23</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -842,7 +842,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2025-03-23</t>
+          <t>2025-03-30</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -882,7 +882,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2025-03-30</t>
+          <t>2025-04-06</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -922,7 +922,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-04-06</t>
+          <t>2025-04-13</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -962,7 +962,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2025-04-13</t>
+          <t>2025-04-20</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
@@ -1002,7 +1002,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-04-20</t>
+          <t>2025-04-27</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -1042,7 +1042,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2025-04-27</t>
+          <t>2025-05-04</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -1082,7 +1082,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2025-05-04</t>
+          <t>2025-05-11</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1153,7 +1153,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2025-01-12</t>
+          <t>2023-01-01 to 2025-01-19</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1285,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1309,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-19</t>
+          <t>2025-01-26</t>
         </is>
       </c>
     </row>

--- a/Sufficient data/forecast_summary_B087GH5SK2.xlsx
+++ b/Sufficient data/forecast_summary_B087GH5SK2.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Forecast Comparison" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Forecast Data" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Summary" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
@@ -17,14 +17,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="1">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -35,7 +41,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -43,12 +49,22 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J17"/>
+  <dimension ref="A1:U17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -423,75 +439,124 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Week</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Week_Start_Date</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>MyForecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon Mean Forecast</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon P70 Forecast</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon P80 Forecast</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>Amazon P90 Forecast</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>Diff_Mean</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>Pct_Mean</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>Diff_P70</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>Pct_P70</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>Diff_P80</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>Pct_P80</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>Diff_P90</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>Pct_P90</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>y</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>is_holiday_week</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>MyForecast_XGB</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>ASIN</t>
         </is>
       </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>MyForecast</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Amazon Mean Forecast</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Amazon P70 Forecast</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Amazon P80 Forecast</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Amazon P90 Forecast</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>Product Title</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>is_holiday_week</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>W1</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>2025-01-26</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>B087GH5SK2</t>
-        </is>
+      <c r="A2" s="2" t="n">
+        <v>45690</v>
+      </c>
+      <c r="B2" t="n">
+        <v>0</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>0</v>
+        <v>1.308051017039968e-09</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
@@ -505,73 +570,127 @@
       <c r="H2" t="n">
         <v>1</v>
       </c>
-      <c r="I2" t="inlineStr">
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>0</v>
+      </c>
+      <c r="K2" t="n">
+        <v>0</v>
+      </c>
+      <c r="L2" t="n">
+        <v>0</v>
+      </c>
+      <c r="M2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="O2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P2" t="n">
+        <v>-100</v>
+      </c>
+      <c r="Q2" t="inlineStr"/>
+      <c r="R2" t="b">
+        <v>0</v>
+      </c>
+      <c r="S2" t="n">
+        <v>0</v>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
       </c>
-      <c r="J2" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>W2</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>2025-02-02</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
+      <c r="A3" s="2" t="n">
+        <v>45697</v>
+      </c>
+      <c r="B3" t="n">
+        <v>0</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.247320777475684e-09</v>
+      </c>
+      <c r="E3" t="n">
+        <v>0</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0</v>
+      </c>
+      <c r="H3" t="n">
+        <v>0</v>
+      </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>0</v>
+      </c>
+      <c r="K3" t="n">
+        <v>0</v>
+      </c>
+      <c r="L3" t="n">
+        <v>0</v>
+      </c>
+      <c r="M3" t="n">
+        <v>0</v>
+      </c>
+      <c r="N3" t="n">
+        <v>0</v>
+      </c>
+      <c r="O3" t="n">
+        <v>0</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="inlineStr"/>
+      <c r="R3" t="b">
+        <v>0</v>
+      </c>
+      <c r="S3" t="n">
+        <v>0</v>
+      </c>
+      <c r="T3" t="inlineStr">
         <is>
           <t>B087GH5SK2</t>
         </is>
       </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0</v>
-      </c>
-      <c r="F3" t="n">
-        <v>0</v>
-      </c>
-      <c r="G3" t="n">
-        <v>0</v>
-      </c>
-      <c r="H3" t="n">
-        <v>0</v>
-      </c>
-      <c r="I3" t="inlineStr">
+      <c r="U3" t="inlineStr">
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
       </c>
-      <c r="J3" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>W3</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2025-02-09</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>B087GH5SK2</t>
-        </is>
+      <c r="A4" s="2" t="n">
+        <v>45704</v>
+      </c>
+      <c r="B4" t="n">
+        <v>0</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.208590253153926e-09</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -585,533 +704,917 @@
       <c r="H4" t="n">
         <v>1</v>
       </c>
-      <c r="I4" t="inlineStr">
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>0</v>
+      </c>
+      <c r="K4" t="n">
+        <v>0</v>
+      </c>
+      <c r="L4" t="n">
+        <v>0</v>
+      </c>
+      <c r="M4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="N4" t="n">
+        <v>-100</v>
+      </c>
+      <c r="O4" t="n">
+        <v>-1</v>
+      </c>
+      <c r="P4" t="n">
+        <v>-100</v>
+      </c>
+      <c r="Q4" t="inlineStr"/>
+      <c r="R4" t="b">
+        <v>0</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0</v>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>B087GH5SK2</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
       </c>
-      <c r="J4" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>W4</t>
-        </is>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2025-02-16</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+      <c r="A5" s="2" t="n">
+        <v>45711</v>
+      </c>
+      <c r="B5" t="n">
+        <v>0</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.333277673326198e-09</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0</v>
+      </c>
+      <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" t="n">
+        <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>0</v>
+      </c>
+      <c r="J5" t="n">
+        <v>0</v>
+      </c>
+      <c r="K5" t="n">
+        <v>0</v>
+      </c>
+      <c r="L5" t="n">
+        <v>0</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0</v>
+      </c>
+      <c r="N5" t="n">
+        <v>0</v>
+      </c>
+      <c r="O5" t="n">
+        <v>0</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q5" t="inlineStr"/>
+      <c r="R5" t="b">
+        <v>0</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0</v>
+      </c>
+      <c r="T5" t="inlineStr">
         <is>
           <t>B087GH5SK2</t>
         </is>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0</v>
-      </c>
-      <c r="F5" t="n">
-        <v>0</v>
-      </c>
-      <c r="G5" t="n">
-        <v>0</v>
-      </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
-      <c r="I5" t="inlineStr">
+      <c r="U5" t="inlineStr">
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
       </c>
-      <c r="J5" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>W5</t>
-        </is>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2025-02-23</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
+      <c r="A6" s="2" t="n">
+        <v>45718</v>
+      </c>
+      <c r="B6" t="n">
+        <v>0</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.352629877826048e-09</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0</v>
+      </c>
+      <c r="F6" t="n">
+        <v>0</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" t="n">
+        <v>0</v>
+      </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>0</v>
+      </c>
+      <c r="K6" t="n">
+        <v>0</v>
+      </c>
+      <c r="L6" t="n">
+        <v>0</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0</v>
+      </c>
+      <c r="N6" t="n">
+        <v>0</v>
+      </c>
+      <c r="O6" t="n">
+        <v>0</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q6" t="inlineStr"/>
+      <c r="R6" t="b">
+        <v>0</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0</v>
+      </c>
+      <c r="T6" t="inlineStr">
         <is>
           <t>B087GH5SK2</t>
         </is>
       </c>
-      <c r="D6" t="n">
-        <v>0</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0</v>
-      </c>
-      <c r="F6" t="n">
-        <v>0</v>
-      </c>
-      <c r="G6" t="n">
-        <v>0</v>
-      </c>
-      <c r="H6" t="n">
-        <v>0</v>
-      </c>
-      <c r="I6" t="inlineStr">
+      <c r="U6" t="inlineStr">
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
       </c>
-      <c r="J6" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>W6</t>
-        </is>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2025-03-02</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
+      <c r="A7" s="2" t="n">
+        <v>45725</v>
+      </c>
+      <c r="B7" t="n">
+        <v>0</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.502613518398354e-09</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0</v>
+      </c>
+      <c r="F7" t="n">
+        <v>0</v>
+      </c>
+      <c r="G7" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" t="n">
+        <v>0</v>
+      </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>0</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0</v>
+      </c>
+      <c r="N7" t="n">
+        <v>0</v>
+      </c>
+      <c r="O7" t="n">
+        <v>0</v>
+      </c>
+      <c r="P7" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q7" t="inlineStr"/>
+      <c r="R7" t="b">
+        <v>0</v>
+      </c>
+      <c r="S7" t="n">
+        <v>0</v>
+      </c>
+      <c r="T7" t="inlineStr">
         <is>
           <t>B087GH5SK2</t>
         </is>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0</v>
-      </c>
-      <c r="F7" t="n">
-        <v>0</v>
-      </c>
-      <c r="G7" t="n">
-        <v>0</v>
-      </c>
-      <c r="H7" t="n">
-        <v>0</v>
-      </c>
-      <c r="I7" t="inlineStr">
+      <c r="U7" t="inlineStr">
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
       </c>
-      <c r="J7" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>W7</t>
-        </is>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>2025-03-09</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
+      <c r="A8" s="2" t="n">
+        <v>45732</v>
+      </c>
+      <c r="B8" t="n">
+        <v>0</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.61737345525335e-09</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0</v>
+      </c>
+      <c r="F8" t="n">
+        <v>0</v>
+      </c>
+      <c r="G8" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" t="n">
+        <v>0</v>
+      </c>
+      <c r="I8" t="n">
+        <v>0</v>
+      </c>
+      <c r="J8" t="n">
+        <v>0</v>
+      </c>
+      <c r="K8" t="n">
+        <v>0</v>
+      </c>
+      <c r="L8" t="n">
+        <v>0</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0</v>
+      </c>
+      <c r="N8" t="n">
+        <v>0</v>
+      </c>
+      <c r="O8" t="n">
+        <v>0</v>
+      </c>
+      <c r="P8" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q8" t="inlineStr"/>
+      <c r="R8" t="b">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>0</v>
+      </c>
+      <c r="T8" t="inlineStr">
         <is>
           <t>B087GH5SK2</t>
         </is>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0</v>
-      </c>
-      <c r="F8" t="n">
-        <v>0</v>
-      </c>
-      <c r="G8" t="n">
-        <v>0</v>
-      </c>
-      <c r="H8" t="n">
-        <v>0</v>
-      </c>
-      <c r="I8" t="inlineStr">
+      <c r="U8" t="inlineStr">
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
       </c>
-      <c r="J8" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>W8</t>
-        </is>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>2025-03-16</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
+      <c r="A9" s="2" t="n">
+        <v>45739</v>
+      </c>
+      <c r="B9" t="n">
+        <v>0</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.802761349775373e-09</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0</v>
+      </c>
+      <c r="F9" t="n">
+        <v>0</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" t="n">
+        <v>0</v>
+      </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0</v>
+      </c>
+      <c r="O9" t="n">
+        <v>0</v>
+      </c>
+      <c r="P9" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q9" t="inlineStr"/>
+      <c r="R9" t="b">
+        <v>0</v>
+      </c>
+      <c r="S9" t="n">
+        <v>0</v>
+      </c>
+      <c r="T9" t="inlineStr">
         <is>
           <t>B087GH5SK2</t>
         </is>
       </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0</v>
-      </c>
-      <c r="F9" t="n">
-        <v>0</v>
-      </c>
-      <c r="G9" t="n">
-        <v>0</v>
-      </c>
-      <c r="H9" t="n">
-        <v>0</v>
-      </c>
-      <c r="I9" t="inlineStr">
+      <c r="U9" t="inlineStr">
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
       </c>
-      <c r="J9" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>W9</t>
-        </is>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>2025-03-23</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
+      <c r="A10" s="2" t="n">
+        <v>45746</v>
+      </c>
+      <c r="B10" t="n">
+        <v>0</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0</v>
+      </c>
+      <c r="D10" t="n">
+        <v>1.902325781962068e-09</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0</v>
+      </c>
+      <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="inlineStr"/>
+      <c r="R10" t="b">
+        <v>0</v>
+      </c>
+      <c r="S10" t="n">
+        <v>0</v>
+      </c>
+      <c r="T10" t="inlineStr">
         <is>
           <t>B087GH5SK2</t>
         </is>
       </c>
-      <c r="D10" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0</v>
-      </c>
-      <c r="F10" t="n">
-        <v>0</v>
-      </c>
-      <c r="G10" t="n">
-        <v>0</v>
-      </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="inlineStr">
+      <c r="U10" t="inlineStr">
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
       </c>
-      <c r="J10" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>W10</t>
-        </is>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>2025-03-30</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
+      <c r="A11" s="2" t="n">
+        <v>45753</v>
+      </c>
+      <c r="B11" t="n">
+        <v>0</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0</v>
+      </c>
+      <c r="D11" t="n">
+        <v>2.259130153321518e-09</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0</v>
+      </c>
+      <c r="G11" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" t="n">
+        <v>0</v>
+      </c>
+      <c r="I11" t="n">
+        <v>0</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0</v>
+      </c>
+      <c r="O11" t="n">
+        <v>0</v>
+      </c>
+      <c r="P11" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q11" t="inlineStr"/>
+      <c r="R11" t="b">
+        <v>0</v>
+      </c>
+      <c r="S11" t="n">
+        <v>0</v>
+      </c>
+      <c r="T11" t="inlineStr">
         <is>
           <t>B087GH5SK2</t>
         </is>
       </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0</v>
-      </c>
-      <c r="F11" t="n">
-        <v>0</v>
-      </c>
-      <c r="G11" t="n">
-        <v>0</v>
-      </c>
-      <c r="H11" t="n">
-        <v>0</v>
-      </c>
-      <c r="I11" t="inlineStr">
+      <c r="U11" t="inlineStr">
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
       </c>
-      <c r="J11" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>W11</t>
-        </is>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>2025-04-06</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
+      <c r="A12" s="2" t="n">
+        <v>45760</v>
+      </c>
+      <c r="B12" t="n">
+        <v>0</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0</v>
+      </c>
+      <c r="D12" t="n">
+        <v>2.454931267717907e-09</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0</v>
+      </c>
+      <c r="F12" t="n">
+        <v>0</v>
+      </c>
+      <c r="G12" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" t="n">
+        <v>0</v>
+      </c>
+      <c r="I12" t="n">
+        <v>0</v>
+      </c>
+      <c r="J12" t="n">
+        <v>0</v>
+      </c>
+      <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q12" t="inlineStr"/>
+      <c r="R12" t="b">
+        <v>0</v>
+      </c>
+      <c r="S12" t="n">
+        <v>0</v>
+      </c>
+      <c r="T12" t="inlineStr">
         <is>
           <t>B087GH5SK2</t>
         </is>
       </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0</v>
-      </c>
-      <c r="F12" t="n">
-        <v>0</v>
-      </c>
-      <c r="G12" t="n">
-        <v>0</v>
-      </c>
-      <c r="H12" t="n">
-        <v>0</v>
-      </c>
-      <c r="I12" t="inlineStr">
+      <c r="U12" t="inlineStr">
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
       </c>
-      <c r="J12" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>W12</t>
-        </is>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>2025-04-13</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
+      <c r="A13" s="2" t="n">
+        <v>45767</v>
+      </c>
+      <c r="B13" t="n">
+        <v>0</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0</v>
+      </c>
+      <c r="D13" t="n">
+        <v>2.709240475947476e-09</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0</v>
+      </c>
+      <c r="F13" t="n">
+        <v>0</v>
+      </c>
+      <c r="G13" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" t="n">
+        <v>0</v>
+      </c>
+      <c r="I13" t="n">
+        <v>0</v>
+      </c>
+      <c r="J13" t="n">
+        <v>0</v>
+      </c>
+      <c r="K13" t="n">
+        <v>0</v>
+      </c>
+      <c r="L13" t="n">
+        <v>0</v>
+      </c>
+      <c r="M13" t="n">
+        <v>0</v>
+      </c>
+      <c r="N13" t="n">
+        <v>0</v>
+      </c>
+      <c r="O13" t="n">
+        <v>0</v>
+      </c>
+      <c r="P13" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q13" t="inlineStr"/>
+      <c r="R13" t="b">
+        <v>0</v>
+      </c>
+      <c r="S13" t="n">
+        <v>0</v>
+      </c>
+      <c r="T13" t="inlineStr">
         <is>
           <t>B087GH5SK2</t>
         </is>
       </c>
-      <c r="D13" t="n">
-        <v>0</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0</v>
-      </c>
-      <c r="F13" t="n">
-        <v>0</v>
-      </c>
-      <c r="G13" t="n">
-        <v>0</v>
-      </c>
-      <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr">
+      <c r="U13" t="inlineStr">
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
       </c>
-      <c r="J13" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>W13</t>
-        </is>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>2025-04-20</t>
-        </is>
-      </c>
-      <c r="C14" t="inlineStr">
+      <c r="A14" s="2" t="n">
+        <v>45774</v>
+      </c>
+      <c r="B14" t="n">
+        <v>0</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0</v>
+      </c>
+      <c r="D14" t="n">
+        <v>2.956798171480122e-09</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0</v>
+      </c>
+      <c r="G14" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" t="n">
+        <v>0</v>
+      </c>
+      <c r="I14" t="n">
+        <v>0</v>
+      </c>
+      <c r="J14" t="n">
+        <v>0</v>
+      </c>
+      <c r="K14" t="n">
+        <v>0</v>
+      </c>
+      <c r="L14" t="n">
+        <v>0</v>
+      </c>
+      <c r="M14" t="n">
+        <v>0</v>
+      </c>
+      <c r="N14" t="n">
+        <v>0</v>
+      </c>
+      <c r="O14" t="n">
+        <v>0</v>
+      </c>
+      <c r="P14" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q14" t="inlineStr"/>
+      <c r="R14" t="b">
+        <v>0</v>
+      </c>
+      <c r="S14" t="n">
+        <v>0</v>
+      </c>
+      <c r="T14" t="inlineStr">
         <is>
           <t>B087GH5SK2</t>
         </is>
       </c>
-      <c r="D14" t="n">
-        <v>0</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0</v>
-      </c>
-      <c r="F14" t="n">
-        <v>0</v>
-      </c>
-      <c r="G14" t="n">
-        <v>0</v>
-      </c>
-      <c r="H14" t="n">
-        <v>0</v>
-      </c>
-      <c r="I14" t="inlineStr">
+      <c r="U14" t="inlineStr">
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
       </c>
-      <c r="J14" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>W14</t>
-        </is>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>2025-04-27</t>
-        </is>
-      </c>
-      <c r="C15" t="inlineStr">
+      <c r="A15" s="2" t="n">
+        <v>45781</v>
+      </c>
+      <c r="B15" t="n">
+        <v>0</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0</v>
+      </c>
+      <c r="D15" t="n">
+        <v>3.159082113873044e-09</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0</v>
+      </c>
+      <c r="F15" t="n">
+        <v>0</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" t="n">
+        <v>0</v>
+      </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>0</v>
+      </c>
+      <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q15" t="inlineStr"/>
+      <c r="R15" t="b">
+        <v>0</v>
+      </c>
+      <c r="S15" t="n">
+        <v>0</v>
+      </c>
+      <c r="T15" t="inlineStr">
         <is>
           <t>B087GH5SK2</t>
         </is>
       </c>
-      <c r="D15" t="n">
-        <v>0</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0</v>
-      </c>
-      <c r="F15" t="n">
-        <v>0</v>
-      </c>
-      <c r="G15" t="n">
-        <v>0</v>
-      </c>
-      <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr">
+      <c r="U15" t="inlineStr">
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
       </c>
-      <c r="J15" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>W15</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>2025-05-04</t>
-        </is>
-      </c>
-      <c r="C16" t="inlineStr">
+      <c r="A16" s="2" t="n">
+        <v>45788</v>
+      </c>
+      <c r="B16" t="n">
+        <v>0</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0</v>
+      </c>
+      <c r="D16" t="n">
+        <v>3.491213184082112e-09</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0</v>
+      </c>
+      <c r="F16" t="n">
+        <v>0</v>
+      </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>0</v>
+      </c>
+      <c r="K16" t="n">
+        <v>0</v>
+      </c>
+      <c r="L16" t="n">
+        <v>0</v>
+      </c>
+      <c r="M16" t="n">
+        <v>0</v>
+      </c>
+      <c r="N16" t="n">
+        <v>0</v>
+      </c>
+      <c r="O16" t="n">
+        <v>0</v>
+      </c>
+      <c r="P16" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q16" t="inlineStr"/>
+      <c r="R16" t="b">
+        <v>0</v>
+      </c>
+      <c r="S16" t="n">
+        <v>0</v>
+      </c>
+      <c r="T16" t="inlineStr">
         <is>
           <t>B087GH5SK2</t>
         </is>
       </c>
-      <c r="D16" t="n">
-        <v>0</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0</v>
-      </c>
-      <c r="F16" t="n">
-        <v>0</v>
-      </c>
-      <c r="G16" t="n">
-        <v>0</v>
-      </c>
-      <c r="H16" t="n">
-        <v>0</v>
-      </c>
-      <c r="I16" t="inlineStr">
+      <c r="U16" t="inlineStr">
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
       </c>
-      <c r="J16" t="b">
-        <v>0</v>
-      </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>W16</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>2025-05-11</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="A17" s="2" t="n">
+        <v>45795</v>
+      </c>
+      <c r="B17" t="n">
+        <v>0</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0</v>
+      </c>
+      <c r="D17" t="n">
+        <v>3.837851836751693e-09</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0</v>
+      </c>
+      <c r="F17" t="n">
+        <v>0</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0</v>
+      </c>
+      <c r="J17" t="n">
+        <v>0</v>
+      </c>
+      <c r="K17" t="n">
+        <v>0</v>
+      </c>
+      <c r="L17" t="n">
+        <v>0</v>
+      </c>
+      <c r="M17" t="n">
+        <v>0</v>
+      </c>
+      <c r="N17" t="n">
+        <v>0</v>
+      </c>
+      <c r="O17" t="n">
+        <v>0</v>
+      </c>
+      <c r="P17" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q17" t="inlineStr"/>
+      <c r="R17" t="b">
+        <v>0</v>
+      </c>
+      <c r="S17" t="n">
+        <v>0</v>
+      </c>
+      <c r="T17" t="inlineStr">
         <is>
           <t>B087GH5SK2</t>
         </is>
       </c>
-      <c r="D17" t="n">
-        <v>0</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0</v>
-      </c>
-      <c r="F17" t="n">
-        <v>0</v>
-      </c>
-      <c r="G17" t="n">
-        <v>0</v>
-      </c>
-      <c r="H17" t="n">
-        <v>0</v>
-      </c>
-      <c r="I17" t="inlineStr">
+      <c r="U17" t="inlineStr">
         <is>
           <t>Z490 AORUS MASTER</t>
         </is>
-      </c>
-      <c r="J17" t="b">
-        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1134,12 +1637,12 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="inlineStr">
+      <c r="A1" s="1" t="inlineStr">
         <is>
           <t>Metric</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
         <is>
           <t>Value</t>
         </is>
@@ -1153,7 +1656,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2023-01-01 to 2025-01-19</t>
+          <t>2023-01-01 to 2025-01-26</t>
         </is>
       </c>
     </row>
@@ -1285,7 +1788,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
@@ -1309,7 +1812,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2025-01-26</t>
+          <t>2025-02-02</t>
         </is>
       </c>
     </row>
